--- a/ProyectoFinal/Profesores.xlsx
+++ b/ProyectoFinal/Profesores.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ProyectoFinal\ProyectoFinal\vistas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ProyectoFinal\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>69898982</t>
+  </si>
+  <si>
+    <t>11223344</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Profe</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>fsd</t>
   </si>
 </sst>
 </file>
@@ -161,7 +176,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -654,10 +669,27 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
